--- a/storage/uploads/Registered_Users_ABC.xlsx
+++ b/storage/uploads/Registered_Users_ABC.xlsx
@@ -5,22 +5,35 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB98E2B-284C-45C3-A62F-561395E4CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC74D24-5EB4-43B3-BCED-9429D6177C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="710">
   <si>
     <t>شماره تماس</t>
   </si>
@@ -2147,6 +2160,9 @@
   </si>
   <si>
     <t>نام</t>
+  </si>
+  <si>
+    <t>عرفان محمدیان</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2205,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="معمولی" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2526,20 +2542,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C345"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="K226" sqref="K226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>708</v>
       </c>
@@ -2550,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2561,7 +2577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2583,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2594,7 +2610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2605,7 +2621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2616,7 +2632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2627,7 +2643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2638,7 +2654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2649,7 +2665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2660,7 +2676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -2671,7 +2687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2682,7 +2698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2693,7 +2709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2704,7 +2720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2715,7 +2731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2726,7 +2742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2737,7 +2753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2748,7 +2764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -2759,7 +2775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2770,7 +2786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2781,7 +2797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2792,7 +2808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2803,7 +2819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2814,7 +2830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2825,7 +2841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -2836,7 +2852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2847,7 +2863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -2858,7 +2874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -2869,7 +2885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -2880,7 +2896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -2891,7 +2907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -2902,7 +2918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -2913,7 +2929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -2924,7 +2940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -2935,7 +2951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -2946,7 +2962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2957,7 +2973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
@@ -2968,7 +2984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -2979,7 +2995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -2990,7 +3006,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
@@ -3001,7 +3017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -3012,7 +3028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
@@ -3023,7 +3039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
@@ -3034,7 +3050,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>101</v>
       </c>
@@ -3045,7 +3061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>103</v>
       </c>
@@ -3056,7 +3072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -3067,7 +3083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
@@ -3078,7 +3094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -3089,7 +3105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
@@ -3100,7 +3116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
@@ -3111,7 +3127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -3122,7 +3138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -3133,7 +3149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -3144,7 +3160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
@@ -3155,7 +3171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -3166,7 +3182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>126</v>
       </c>
@@ -3177,7 +3193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -3188,7 +3204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>130</v>
       </c>
@@ -3199,7 +3215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>132</v>
       </c>
@@ -3210,7 +3226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
@@ -3221,7 +3237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>136</v>
       </c>
@@ -3232,7 +3248,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>139</v>
       </c>
@@ -3243,7 +3259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>141</v>
       </c>
@@ -3254,7 +3270,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>144</v>
       </c>
@@ -3265,7 +3281,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>146</v>
       </c>
@@ -3276,7 +3292,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>148</v>
       </c>
@@ -3287,7 +3303,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>150</v>
       </c>
@@ -3298,7 +3314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
@@ -3309,7 +3325,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>154</v>
       </c>
@@ -3320,7 +3336,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>156</v>
       </c>
@@ -3331,7 +3347,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>158</v>
       </c>
@@ -3342,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>160</v>
       </c>
@@ -3353,7 +3369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>162</v>
       </c>
@@ -3364,7 +3380,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>164</v>
       </c>
@@ -3375,7 +3391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>166</v>
       </c>
@@ -3386,7 +3402,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>168</v>
       </c>
@@ -3397,7 +3413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>170</v>
       </c>
@@ -3408,7 +3424,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>172</v>
       </c>
@@ -3419,7 +3435,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
@@ -3430,7 +3446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>176</v>
       </c>
@@ -3441,7 +3457,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>178</v>
       </c>
@@ -3452,7 +3468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>180</v>
       </c>
@@ -3463,7 +3479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>182</v>
       </c>
@@ -3474,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>184</v>
       </c>
@@ -3485,7 +3501,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>186</v>
       </c>
@@ -3496,7 +3512,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>188</v>
       </c>
@@ -3507,7 +3523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>190</v>
       </c>
@@ -3518,7 +3534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>192</v>
       </c>
@@ -3529,7 +3545,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>194</v>
       </c>
@@ -3540,7 +3556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>196</v>
       </c>
@@ -3551,7 +3567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>198</v>
       </c>
@@ -3562,7 +3578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>200</v>
       </c>
@@ -3573,7 +3589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>202</v>
       </c>
@@ -3584,7 +3600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>204</v>
       </c>
@@ -3595,7 +3611,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>206</v>
       </c>
@@ -3606,7 +3622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>208</v>
       </c>
@@ -3617,7 +3633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>210</v>
       </c>
@@ -3628,7 +3644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>212</v>
       </c>
@@ -3639,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>214</v>
       </c>
@@ -3650,7 +3666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>216</v>
       </c>
@@ -3661,7 +3677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>218</v>
       </c>
@@ -3672,7 +3688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>220</v>
       </c>
@@ -3683,7 +3699,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>222</v>
       </c>
@@ -3694,7 +3710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>224</v>
       </c>
@@ -3705,7 +3721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>226</v>
       </c>
@@ -3716,7 +3732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>228</v>
       </c>
@@ -3727,7 +3743,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>230</v>
       </c>
@@ -3738,7 +3754,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>233</v>
       </c>
@@ -3749,7 +3765,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>235</v>
       </c>
@@ -3760,7 +3776,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>237</v>
       </c>
@@ -3771,7 +3787,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>239</v>
       </c>
@@ -3782,7 +3798,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>241</v>
       </c>
@@ -3793,7 +3809,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>243</v>
       </c>
@@ -3804,7 +3820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
@@ -3815,7 +3831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>247</v>
       </c>
@@ -3826,7 +3842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>249</v>
       </c>
@@ -3837,7 +3853,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>252</v>
       </c>
@@ -3848,7 +3864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>254</v>
       </c>
@@ -3859,7 +3875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>256</v>
       </c>
@@ -3870,7 +3886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>258</v>
       </c>
@@ -3881,7 +3897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>260</v>
       </c>
@@ -3892,7 +3908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>262</v>
       </c>
@@ -3903,7 +3919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>264</v>
       </c>
@@ -3914,7 +3930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>266</v>
       </c>
@@ -3925,7 +3941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>268</v>
       </c>
@@ -3936,7 +3952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>270</v>
       </c>
@@ -3947,7 +3963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>272</v>
       </c>
@@ -3958,7 +3974,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>274</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>276</v>
       </c>
@@ -3980,7 +3996,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>278</v>
       </c>
@@ -3991,7 +4007,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>280</v>
       </c>
@@ -4002,7 +4018,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>282</v>
       </c>
@@ -4013,7 +4029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>284</v>
       </c>
@@ -4024,7 +4040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>286</v>
       </c>
@@ -4035,7 +4051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>288</v>
       </c>
@@ -4046,7 +4062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>290</v>
       </c>
@@ -4057,7 +4073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>292</v>
       </c>
@@ -4068,7 +4084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>294</v>
       </c>
@@ -4079,7 +4095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>296</v>
       </c>
@@ -4090,7 +4106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>298</v>
       </c>
@@ -4101,7 +4117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>300</v>
       </c>
@@ -4112,7 +4128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>302</v>
       </c>
@@ -4123,7 +4139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>304</v>
       </c>
@@ -4134,7 +4150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>306</v>
       </c>
@@ -4145,7 +4161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>308</v>
       </c>
@@ -4156,7 +4172,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>310</v>
       </c>
@@ -4167,7 +4183,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>312</v>
       </c>
@@ -4178,7 +4194,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>314</v>
       </c>
@@ -4189,7 +4205,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>316</v>
       </c>
@@ -4200,7 +4216,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>318</v>
       </c>
@@ -4211,7 +4227,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>320</v>
       </c>
@@ -4222,7 +4238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>322</v>
       </c>
@@ -4233,7 +4249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>324</v>
       </c>
@@ -4244,7 +4260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>326</v>
       </c>
@@ -4255,7 +4271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>328</v>
       </c>
@@ -4266,7 +4282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>330</v>
       </c>
@@ -4277,7 +4293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>332</v>
       </c>
@@ -4288,7 +4304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>334</v>
       </c>
@@ -4299,7 +4315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>336</v>
       </c>
@@ -4310,7 +4326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>338</v>
       </c>
@@ -4321,7 +4337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>340</v>
       </c>
@@ -4332,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>342</v>
       </c>
@@ -4343,7 +4359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>344</v>
       </c>
@@ -4354,7 +4370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>346</v>
       </c>
@@ -4365,7 +4381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>348</v>
       </c>
@@ -4376,7 +4392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>350</v>
       </c>
@@ -4387,7 +4403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>352</v>
       </c>
@@ -4398,7 +4414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>354</v>
       </c>
@@ -4409,7 +4425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>356</v>
       </c>
@@ -4420,7 +4436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>358</v>
       </c>
@@ -4431,7 +4447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>360</v>
       </c>
@@ -4442,7 +4458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>362</v>
       </c>
@@ -4453,7 +4469,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>365</v>
       </c>
@@ -4464,7 +4480,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>367</v>
       </c>
@@ -4475,7 +4491,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>369</v>
       </c>
@@ -4486,7 +4502,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>371</v>
       </c>
@@ -4497,7 +4513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>373</v>
       </c>
@@ -4508,7 +4524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>375</v>
       </c>
@@ -4519,7 +4535,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>377</v>
       </c>
@@ -4530,7 +4546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>379</v>
       </c>
@@ -4541,7 +4557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>381</v>
       </c>
@@ -4552,7 +4568,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>383</v>
       </c>
@@ -4563,7 +4579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>385</v>
       </c>
@@ -4574,7 +4590,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>388</v>
       </c>
@@ -4585,7 +4601,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>390</v>
       </c>
@@ -4596,7 +4612,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>392</v>
       </c>
@@ -4607,7 +4623,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>394</v>
       </c>
@@ -4618,7 +4634,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>396</v>
       </c>
@@ -4629,7 +4645,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>397</v>
       </c>
@@ -4640,7 +4656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>399</v>
       </c>
@@ -4651,7 +4667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>401</v>
       </c>
@@ -4662,7 +4678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>403</v>
       </c>
@@ -4673,7 +4689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>405</v>
       </c>
@@ -4684,7 +4700,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>407</v>
       </c>
@@ -4695,7 +4711,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>409</v>
       </c>
@@ -4706,7 +4722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>411</v>
       </c>
@@ -4717,7 +4733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>413</v>
       </c>
@@ -4728,7 +4744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>415</v>
       </c>
@@ -4739,7 +4755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>417</v>
       </c>
@@ -4750,7 +4766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>419</v>
       </c>
@@ -4761,7 +4777,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>421</v>
       </c>
@@ -4772,7 +4788,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>423</v>
       </c>
@@ -4783,7 +4799,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>425</v>
       </c>
@@ -4794,7 +4810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>427</v>
       </c>
@@ -4805,7 +4821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>429</v>
       </c>
@@ -4816,7 +4832,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>431</v>
       </c>
@@ -4827,7 +4843,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>433</v>
       </c>
@@ -4838,7 +4854,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>435</v>
       </c>
@@ -4849,7 +4865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>437</v>
       </c>
@@ -4860,7 +4876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>439</v>
       </c>
@@ -4871,7 +4887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>441</v>
       </c>
@@ -4882,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>443</v>
       </c>
@@ -4893,7 +4909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>445</v>
       </c>
@@ -4904,7 +4920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>447</v>
       </c>
@@ -4915,7 +4931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>449</v>
       </c>
@@ -4926,7 +4942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>451</v>
       </c>
@@ -4937,7 +4953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>453</v>
       </c>
@@ -4948,7 +4964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>455</v>
       </c>
@@ -4959,7 +4975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>457</v>
       </c>
@@ -4970,7 +4986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>459</v>
       </c>
@@ -4981,7 +4997,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>461</v>
       </c>
@@ -4992,7 +5008,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>463</v>
       </c>
@@ -5003,7 +5019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>465</v>
       </c>
@@ -5014,7 +5030,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>467</v>
       </c>
@@ -5025,7 +5041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>469</v>
       </c>
@@ -5036,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>471</v>
       </c>
@@ -5047,7 +5063,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>473</v>
       </c>
@@ -5058,7 +5074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>475</v>
       </c>
@@ -5069,7 +5085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>477</v>
       </c>
@@ -5080,7 +5096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>479</v>
       </c>
@@ -5091,7 +5107,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>481</v>
       </c>
@@ -5102,7 +5118,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>483</v>
       </c>
@@ -5113,7 +5129,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>485</v>
       </c>
@@ -5124,7 +5140,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>487</v>
       </c>
@@ -5135,7 +5151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>489</v>
       </c>
@@ -5146,7 +5162,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>491</v>
       </c>
@@ -5157,7 +5173,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>493</v>
       </c>
@@ -5168,7 +5184,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>495</v>
       </c>
@@ -5179,7 +5195,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>497</v>
       </c>
@@ -5190,7 +5206,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>499</v>
       </c>
@@ -5201,7 +5217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>501</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>503</v>
       </c>
@@ -5223,7 +5239,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>505</v>
       </c>
@@ -5234,7 +5250,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>507</v>
       </c>
@@ -5245,7 +5261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>509</v>
       </c>
@@ -5256,7 +5272,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>511</v>
       </c>
@@ -5267,7 +5283,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>513</v>
       </c>
@@ -5278,7 +5294,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>515</v>
       </c>
@@ -5289,7 +5305,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>517</v>
       </c>
@@ -5300,7 +5316,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>519</v>
       </c>
@@ -5311,7 +5327,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>521</v>
       </c>
@@ -5322,7 +5338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>523</v>
       </c>
@@ -5333,7 +5349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>525</v>
       </c>
@@ -5344,7 +5360,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>527</v>
       </c>
@@ -5355,7 +5371,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>529</v>
       </c>
@@ -5366,7 +5382,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>531</v>
       </c>
@@ -5377,7 +5393,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>533</v>
       </c>
@@ -5388,7 +5404,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>535</v>
       </c>
@@ -5399,7 +5415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>537</v>
       </c>
@@ -5410,7 +5426,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>539</v>
       </c>
@@ -5421,7 +5437,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>541</v>
       </c>
@@ -5432,7 +5448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>543</v>
       </c>
@@ -5443,7 +5459,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>546</v>
       </c>
@@ -5454,7 +5470,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>548</v>
       </c>
@@ -5465,7 +5481,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>550</v>
       </c>
@@ -5476,7 +5492,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>552</v>
       </c>
@@ -5487,7 +5503,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>554</v>
       </c>
@@ -5498,7 +5514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>556</v>
       </c>
@@ -5509,7 +5525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>558</v>
       </c>
@@ -5520,7 +5536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>560</v>
       </c>
@@ -5531,7 +5547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>562</v>
       </c>
@@ -5542,7 +5558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>564</v>
       </c>
@@ -5553,7 +5569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>566</v>
       </c>
@@ -5564,7 +5580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>568</v>
       </c>
@@ -5575,7 +5591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>570</v>
       </c>
@@ -5586,7 +5602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>572</v>
       </c>
@@ -5597,7 +5613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>574</v>
       </c>
@@ -5608,7 +5624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>576</v>
       </c>
@@ -5619,7 +5635,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>578</v>
       </c>
@@ -5630,7 +5646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>580</v>
       </c>
@@ -5641,7 +5657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>582</v>
       </c>
@@ -5652,7 +5668,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>584</v>
       </c>
@@ -5663,7 +5679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>586</v>
       </c>
@@ -5674,7 +5690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>588</v>
       </c>
@@ -5685,7 +5701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>590</v>
       </c>
@@ -5696,7 +5712,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>592</v>
       </c>
@@ -5707,7 +5723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>594</v>
       </c>
@@ -5718,7 +5734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>596</v>
       </c>
@@ -5729,7 +5745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>598</v>
       </c>
@@ -5740,7 +5756,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>600</v>
       </c>
@@ -5751,7 +5767,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>602</v>
       </c>
@@ -5762,7 +5778,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>604</v>
       </c>
@@ -5773,7 +5789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>606</v>
       </c>
@@ -5784,7 +5800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>608</v>
       </c>
@@ -5795,7 +5811,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>610</v>
       </c>
@@ -5806,7 +5822,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>613</v>
       </c>
@@ -5817,7 +5833,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>615</v>
       </c>
@@ -5828,7 +5844,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>617</v>
       </c>
@@ -5839,7 +5855,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>619</v>
       </c>
@@ -5850,7 +5866,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>621</v>
       </c>
@@ -5861,7 +5877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>623</v>
       </c>
@@ -5872,7 +5888,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>625</v>
       </c>
@@ -5883,7 +5899,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>627</v>
       </c>
@@ -5894,7 +5910,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>629</v>
       </c>
@@ -5905,7 +5921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>631</v>
       </c>
@@ -5916,7 +5932,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>633</v>
       </c>
@@ -5927,7 +5943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>635</v>
       </c>
@@ -5938,7 +5954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>637</v>
       </c>
@@ -5949,7 +5965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>639</v>
       </c>
@@ -5960,7 +5976,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>641</v>
       </c>
@@ -5971,7 +5987,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>643</v>
       </c>
@@ -5982,7 +5998,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>645</v>
       </c>
@@ -5993,7 +6009,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>647</v>
       </c>
@@ -6004,7 +6020,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>649</v>
       </c>
@@ -6015,7 +6031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>651</v>
       </c>
@@ -6026,7 +6042,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>653</v>
       </c>
@@ -6037,7 +6053,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>655</v>
       </c>
@@ -6048,7 +6064,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>657</v>
       </c>
@@ -6059,7 +6075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>659</v>
       </c>
@@ -6070,7 +6086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>661</v>
       </c>
@@ -6081,7 +6097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>663</v>
       </c>
@@ -6092,7 +6108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>633</v>
       </c>
@@ -6103,7 +6119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>666</v>
       </c>
@@ -6114,7 +6130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>668</v>
       </c>
@@ -6125,7 +6141,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>670</v>
       </c>
@@ -6136,7 +6152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>672</v>
       </c>
@@ -6147,7 +6163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>674</v>
       </c>
@@ -6158,7 +6174,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>676</v>
       </c>
@@ -6169,7 +6185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>678</v>
       </c>
@@ -6180,7 +6196,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>680</v>
       </c>
@@ -6191,7 +6207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>682</v>
       </c>
@@ -6202,7 +6218,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>684</v>
       </c>
@@ -6213,7 +6229,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>686</v>
       </c>
@@ -6224,7 +6240,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>688</v>
       </c>
@@ -6235,7 +6251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>690</v>
       </c>
@@ -6246,7 +6262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>692</v>
       </c>
@@ -6257,7 +6273,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>694</v>
       </c>
@@ -6268,7 +6284,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>696</v>
       </c>
@@ -6279,7 +6295,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>698</v>
       </c>
@@ -6290,7 +6306,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>700</v>
       </c>
@@ -6301,7 +6317,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>702</v>
       </c>
@@ -6312,7 +6328,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>704</v>
       </c>
@@ -6323,21 +6339,37 @@
         <v>387</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>706</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>387</v>
+      <c r="C345" s="1" t="str">
+        <f>RIGHT(B345,7)</f>
+        <v>1894184</v>
+      </c>
+      <c r="D345" t="str">
+        <f>MID(B345,2,11)</f>
+        <v>9121894184</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B346" s="1">
+        <v>9330025058</v>
+      </c>
+      <c r="C346" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:C345 B1:C1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:C344 B1:C1 A345:B345" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>